--- a/Attachment C-1 Technical Qualifications.xlsx
+++ b/Attachment C-1 Technical Qualifications.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ustaxcourt.sharepoint.com/sites/ClerksOfficeProcurementTeam/Shared Documents/General/CONTRACTS/FY25 Digital Environment/Legal Review/Final package/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="929" documentId="8_{B9EE35BC-2C34-439D-BBE0-BD6628FB0B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAD21C1-47CF-4981-A8D1-C5E0D592A8C1}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="930" documentId="8_{B9EE35BC-2C34-439D-BBE0-BD6628FB0B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9708BB-1581-432E-BCF2-BAB226B5C2FC}"/>
   <bookViews>
-    <workbookView xWindow="-13275" yWindow="-21600" windowWidth="26010" windowHeight="20985" tabRatio="665" xr2:uid="{8A1DC20E-A95C-431F-90C4-822735B01E86}"/>
+    <workbookView xWindow="12525" yWindow="-21600" windowWidth="26010" windowHeight="20985" tabRatio="665" xr2:uid="{8A1DC20E-A95C-431F-90C4-822735B01E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="15" r:id="rId1"/>
@@ -1619,7 +1614,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1898,6 +1894,7 @@
     <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2308,6 +2305,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2488,6 +2486,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2731,6 +2730,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2944,6 +2944,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3195,6 +3196,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3358,312 +3360,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="166c149d-d99b-4c96-9f05-42527fae8239" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78dfdc0-6d86-4ad7-b6c6-ada07d3cdd19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042D09E6983C2574185054B40F6DAA347" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a1293ce191f69c072463674441166c75">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b78dfdc0-6d86-4ad7-b6c6-ada07d3cdd19" xmlns:ns3="166c149d-d99b-4c96-9f05-42527fae8239" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="778ee70f84a6111b1044bb4160bce134" ns2:_="" ns3:_="">
-    <xsd:import namespace="b78dfdc0-6d86-4ad7-b6c6-ada07d3cdd19"/>
-    <xsd:import namespace="166c149d-d99b-4c96-9f05-42527fae8239"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b78dfdc0-6d86-4ad7-b6c6-ada07d3cdd19" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ab9dc224-b70f-41e7-81fe-c01715919c3d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="166c149d-d99b-4c96-9f05-42527fae8239" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ce6b3d55-fb92-47f1-9496-e18defffdc77}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="166c149d-d99b-4c96-9f05-42527fae8239">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F02B58-DC96-411B-92FA-641873F95144}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8543E990-D625-4703-963A-2A6E7E938A5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="166c149d-d99b-4c96-9f05-42527fae8239"/>
-    <ds:schemaRef ds:uri="b78dfdc0-6d86-4ad7-b6c6-ada07d3cdd19"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFFE0CF9-8474-414E-B59B-95073B8429D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b78dfdc0-6d86-4ad7-b6c6-ada07d3cdd19"/>
-    <ds:schemaRef ds:uri="166c149d-d99b-4c96-9f05-42527fae8239"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>